--- a/DDAf_2024_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B98F6A3-F8B0-479F-822B-C151633E90AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48912FC5-1B1B-46D9-9C85-E5F6441E4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A7148142-76AD-47E4-B119-002B9D798882}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DF6761F-B525-49F8-8C23-9A1A222694A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511CA635-27E7-47D3-B26F-127D9264FEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CAA654-F693-4AD7-98D7-8210C829DF3A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1462,15 +1462,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1481,7 +1481,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>40.8134426760206</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>45.280597830828697</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>53.666730802892403</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>41.1089736978563</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>9.0747867336163104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>52.543878457438701</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>42.555547388622003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>33.522372787124802</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>42.307461575999902</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>30</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>36.045226356025303</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>7.4290142920893203</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>19.474332157693102</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>13.7289820263994</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>38.233387856260997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>40</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>82.520932170840098</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>42.1405097387631</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>44</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>56.369554253981804</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>44.941674813920997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>48</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>17.334516387250599</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>30</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>37.442217655150799</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>14.388753212769</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>142.904351910532</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>57</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>8.2435796272901491</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>59</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>12.215241383746999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>61</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>30.079812390827701</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>63</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>56.768887005432099</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>65</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>22.481411284443801</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>67</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>109.021503705003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>69</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>58.113844226869197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>15.801878764862099</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>13.7583245136203</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>30</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>15.6070172764283</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>80</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>30.6165708002545</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>15.0870258208479</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>84</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>86</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>42.567500211285903</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>44.894726495269403</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>90</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>49.912971627493803</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>24.571961477528699</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>93</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>23.810860691411101</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>95</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>28.966010998897598</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>97</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>35.592159987887797</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>99</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>23.940319899949198</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>101</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>12.388137994791</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>103</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>34.897739539711097</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>105</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>42.310542823092099</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>107</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>15.779443805462501</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>109</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>31.298871049990499</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>113</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>11.8156404005644</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>14.4731112968426</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>26.9581676703244</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>119</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>28.7277127592812</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>121</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>21.414565520298201</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30"/>
       <c r="B61" s="31" t="s">
         <v>123</v>
@@ -3039,7 +3039,7 @@
         <v>19.802391881110001</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="49"/>
       <c r="B62" s="50" t="s">
         <v>124</v>
@@ -3063,7 +3063,7 @@
         <v>24.808629090366399</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="49"/>
       <c r="B63" s="54" t="s">
         <v>125</v>
@@ -3087,7 +3087,7 @@
         <v>30.905197452161499</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="B64" s="59" t="s">
         <v>126</v>
@@ -3111,7 +3111,7 @@
         <v>28.070387692786898</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
       <c r="B65" s="54" t="s">
         <v>127</v>
@@ -3135,7 +3135,7 @@
         <v>24.074824537042598</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="66" t="s">
         <v>128</v>
@@ -3159,7 +3159,7 @@
         <v>30.599593719031699</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
       <c r="B67" s="54" t="s">
         <v>129</v>
@@ -3183,7 +3183,7 @@
         <v>18.901809244587302</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
       <c r="B68" s="54" t="s">
         <v>130</v>
@@ -3207,7 +3207,7 @@
         <v>21.6519430114625</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
       <c r="B69" s="54" t="s">
         <v>131</v>
@@ -3231,7 +3231,7 @@
         <v>18.907848503946799</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
       <c r="B70" s="54" t="s">
         <v>132</v>
@@ -3255,7 +3255,7 @@
         <v>37.814354612920603</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
       <c r="B71" s="54" t="s">
         <v>133</v>
@@ -3279,7 +3279,7 @@
         <v>19.802391881110001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
       <c r="B72" s="54" t="s">
         <v>134</v>
@@ -3303,7 +3303,7 @@
         <v>12.1462648922938</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
       <c r="B73" s="54" t="s">
         <v>135</v>
@@ -3327,7 +3327,7 @@
         <v>34.5815730456479</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
       <c r="B74" s="54" t="s">
         <v>135</v>
@@ -3351,7 +3351,7 @@
         <v>37.623579095027203</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="54" t="s">
         <v>136</v>
@@ -3375,7 +3375,7 @@
         <v>42.060032368650297</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
       <c r="B76" s="70" t="s">
         <v>137</v>
@@ -3399,7 +3399,7 @@
         <v>53.379348615035497</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
       <c r="B77" s="54" t="s">
         <v>138</v>
@@ -3423,7 +3423,7 @@
         <v>22.0925015819303</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
       <c r="B78" s="54" t="s">
         <v>138</v>
@@ -3447,7 +3447,7 @@
         <v>55.876961117641898</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
       <c r="B79" s="66" t="s">
         <v>139</v>
@@ -3471,7 +3471,7 @@
         <v>33.329014282953402</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
       <c r="B80" s="54" t="s">
         <v>140</v>
@@ -3495,7 +3495,7 @@
         <v>36.153631291735202</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
       <c r="B81" s="54" t="s">
         <v>141</v>
@@ -3519,7 +3519,7 @@
         <v>38.491807368238497</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
       <c r="B82" s="54" t="s">
         <v>142</v>
@@ -3543,7 +3543,7 @@
         <v>23.004413481101999</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
       <c r="B83" s="54" t="s">
         <v>143</v>
@@ -3567,7 +3567,7 @@
         <v>30.267609927639899</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
       <c r="B84" s="70" t="s">
         <v>144</v>
@@ -3591,7 +3591,7 @@
         <v>21.463187186988101</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
       <c r="B85" s="74" t="s">
         <v>145</v>
@@ -3615,7 +3615,7 @@
         <v>11.894238512982</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
       <c r="B86" s="54" t="s">
         <v>146</v>
@@ -3639,7 +3639,7 @@
         <v>23.192661806943601</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="54" t="s">
         <v>147</v>
@@ -3663,7 +3663,7 @@
         <v>22.901282478695499</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="54" t="s">
         <v>148</v>
@@ -3687,7 +3687,7 @@
         <v>35.935762547337497</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="54" t="s">
         <v>149</v>
@@ -3711,7 +3711,7 @@
         <v>27.217049964988899</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
       <c r="B90" s="66" t="s">
         <v>150</v>
@@ -3735,7 +3735,7 @@
         <v>36.000948906459399</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="54" t="s">
         <v>151</v>
@@ -3759,7 +3759,7 @@
         <v>25.987275150798599</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="54" t="s">
         <v>152</v>
@@ -3783,7 +3783,7 @@
         <v>16.9644988149937</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="54" t="s">
         <v>153</v>
@@ -3807,7 +3807,7 @@
         <v>50.921156192973299</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="54" t="s">
         <v>154</v>
@@ -3831,7 +3831,7 @@
         <v>128.89577870065699</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="54" t="s">
         <v>155</v>
@@ -3855,7 +3855,7 @@
         <v>19.896263733818301</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
       <c r="B96" s="54" t="s">
         <v>156</v>
@@ -3879,7 +3879,7 @@
         <v>36.306062717233701</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="70" t="s">
         <v>157</v>
@@ -3903,7 +3903,7 @@
         <v>19.5480326346655</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
       <c r="B98" s="66" t="s">
         <v>158</v>
@@ -3927,7 +3927,7 @@
         <v>19.213839789804599</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="75"/>
       <c r="B99" s="76"/>
       <c r="C99" s="77"/>
@@ -3937,7 +3937,7 @@
       <c r="G99" s="77"/>
       <c r="H99" s="77"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>159</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="G100" s="78"/>
       <c r="H100" s="78"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>160</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="G101" s="78"/>
       <c r="H101" s="78"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>161</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="G102" s="78"/>
       <c r="H102" s="78"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>162</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="G103" s="78"/>
       <c r="H103" s="78"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>163</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="G104" s="78"/>
       <c r="H104" s="78"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105" s="79"/>
       <c r="C105" s="78"/>
       <c r="D105" s="78"/>
@@ -4001,7 +4001,7 @@
       <c r="G105" s="78"/>
       <c r="H105" s="78"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" s="79"/>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
@@ -4010,7 +4010,7 @@
       <c r="G106" s="78"/>
       <c r="H106" s="78"/>
     </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="80" t="s">
         <v>164</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="G107" s="78"/>
       <c r="H107" s="78"/>
     </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="80"/>
       <c r="C108" s="78"/>
       <c r="D108" s="78"/>
@@ -4030,7 +4030,7 @@
       <c r="G108" s="78"/>
       <c r="H108" s="78"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>166</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="G109" s="78"/>
       <c r="H109" s="78"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>167</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="G110" s="78"/>
       <c r="H110" s="78"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" s="83" t="s">
         <v>168</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="G111" s="78"/>
       <c r="H111" s="78"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>165</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="G112" s="78"/>
       <c r="H112" s="78"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="78"/>
       <c r="D113" s="78"/>
@@ -4083,7 +4083,7 @@
       <c r="G113" s="78"/>
       <c r="H113" s="78"/>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="78"/>
       <c r="D114" s="78"/>
@@ -4092,7 +4092,7 @@
       <c r="G114" s="78"/>
       <c r="H114" s="78"/>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="79"/>
       <c r="C115" s="81"/>
       <c r="D115" s="81"/>
@@ -4103,11 +4103,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{AED32036-22B0-4241-A3E6-E8F46AD981C1}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A7B731CC-89D8-4B59-B883-F5BF7341CE15}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{99BAA06F-FE1F-4C24-8935-D472E109FB1E}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{641BCCED-51E0-4886-80E1-6E6455EA221A}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{54D7779B-E843-4998-A087-7726961A9133}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C37E885F-7098-45F3-A74F-1A5E0F086941}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{40998342-B5CE-4357-B12B-FDA0B7A97D5A}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{DE2A26FF-3496-4039-A8E9-A8B23FCFD9A1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{14456F4E-9A13-4377-9BF6-4C48E38684C4}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{805FD175-8E4C-4A80-B634-52E387620B0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48912FC5-1B1B-46D9-9C85-E5F6441E4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32BE8ED-DF83-431C-B99E-7CCBE6D6988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DF6761F-B525-49F8-8C23-9A1A222694A2}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2063D491-2944-4BBF-87F9-4F36B2FE860B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -1136,9 +1136,9 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CAA654-F693-4AD7-98D7-8210C829DF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF39008-D293-4BBE-84AE-BC15F42D6E5E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1466,7 +1466,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="83" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4002,7 +4002,6 @@
       <c r="H105" s="78"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="79"/>
       <c r="C106" s="78"/>
       <c r="D106" s="78"/>
       <c r="E106" s="78"/>
@@ -4053,7 +4052,7 @@
       <c r="H110" s="78"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="83" t="s">
+      <c r="B111" s="81" t="s">
         <v>168</v>
       </c>
       <c r="C111" s="78"/>
@@ -4064,7 +4063,7 @@
       <c r="H111" s="78"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="81" t="s">
         <v>165</v>
       </c>
       <c r="C112" s="78"/>
@@ -4094,20 +4093,20 @@
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="79"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="81"/>
-      <c r="F115" s="81"/>
-      <c r="G115" s="81"/>
-      <c r="H115" s="81"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="82"/>
+      <c r="H115" s="82"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C37E885F-7098-45F3-A74F-1A5E0F086941}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{40998342-B5CE-4357-B12B-FDA0B7A97D5A}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{DE2A26FF-3496-4039-A8E9-A8B23FCFD9A1}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{14456F4E-9A13-4377-9BF6-4C48E38684C4}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{805FD175-8E4C-4A80-B634-52E387620B0A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FC2CC68F-AC31-495D-A57F-7519C227E18E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E6978E33-BDB9-4DC8-B3E3-77FF12410F0F}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C81A3E1D-6C80-4414-BBCA-4153FE0BA369}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{79C65EBD-EC98-47F9-BDAE-F5A859E5D4F3}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{7A5B14A2-9741-465E-B648-23ECCA7AD3DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab15.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C32BE8ED-DF83-431C-B99E-7CCBE6D6988F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9B588E-2FFB-4C35-B814-72F1D4CB9CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{2063D491-2944-4BBF-87F9-4F36B2FE860B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40097A12-6C77-43F5-B2D3-3CAA583386BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab15" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
   <si>
     <t>Tableau 15 : Décomposition de la croissance par dépenses</t>
   </si>
@@ -450,13 +450,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1454,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF39008-D293-4BBE-84AE-BC15F42D6E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F51C996-E651-4DBF-B2E1-FB33D0B65743}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3330,7 +3336,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
       <c r="B74" s="54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="63">
         <v>68.102623500871999</v>
@@ -3354,7 +3360,7 @@
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="55">
         <v>64.860487799627293</v>
@@ -3378,7 +3384,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
       <c r="B76" s="70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="71">
         <v>67.579338077854402</v>
@@ -3402,7 +3408,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
       <c r="B77" s="54" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="63">
         <v>81.648967882752601</v>
@@ -3426,7 +3432,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
       <c r="B78" s="54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C78" s="63">
         <v>73.856222779221497</v>
@@ -3450,7 +3456,7 @@
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
       <c r="B79" s="66" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C79" s="67">
         <v>76.960870283307301</v>
@@ -3474,7 +3480,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
       <c r="B80" s="54" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C80" s="63">
         <v>56.194332350640998</v>
@@ -3498,7 +3504,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
       <c r="B81" s="54" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C81" s="63">
         <v>62.300981032683801</v>
@@ -3522,7 +3528,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
       <c r="B82" s="54" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C82" s="63">
         <v>84.7910014536956</v>
@@ -3546,7 +3552,7 @@
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
       <c r="B83" s="54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C83" s="55">
         <v>71.374873474656894</v>
@@ -3570,7 +3576,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
       <c r="B84" s="70" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C84" s="71">
         <v>88.023140915079694</v>
@@ -3594,7 +3600,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
       <c r="B85" s="74" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C85" s="63">
         <v>142.59954016889199</v>
@@ -3618,7 +3624,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
       <c r="B86" s="54" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C86" s="63">
         <v>79.534797926171805</v>
@@ -3642,7 +3648,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
       <c r="B87" s="54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C87" s="63">
         <v>74.307367608628397</v>
@@ -3666,7 +3672,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
       <c r="B88" s="54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C88" s="63">
         <v>80.885018801000399</v>
@@ -3690,7 +3696,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
       <c r="B89" s="54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C89" s="63">
         <v>62.746717981829498</v>
@@ -3714,7 +3720,7 @@
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
       <c r="B90" s="66" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C90" s="67">
         <v>75.615329425857894</v>
@@ -3738,7 +3744,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
       <c r="B91" s="54" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C91" s="63">
         <v>79.111412559948306</v>
@@ -3762,7 +3768,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
       <c r="B92" s="54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C92" s="63">
         <v>81.319628997853599</v>
@@ -3786,7 +3792,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
       <c r="B93" s="54" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C93" s="63">
         <v>88.416729995555201</v>
@@ -3810,7 +3816,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
       <c r="B94" s="54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C94" s="63">
         <v>54.2378938301676</v>
@@ -3834,7 +3840,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
       <c r="B95" s="54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C95" s="63">
         <v>83.9734604222256</v>
@@ -3858,7 +3864,7 @@
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
       <c r="B96" s="54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C96" s="55">
         <v>76.111928803108597</v>
@@ -3882,7 +3888,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
       <c r="B97" s="70" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C97" s="71">
         <v>80.077456677367195</v>
@@ -3906,7 +3912,7 @@
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
       <c r="B98" s="66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="67">
         <v>78.166203500249793</v>
@@ -3939,7 +3945,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C100" s="78"/>
       <c r="D100" s="78"/>
@@ -3950,7 +3956,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C101" s="78"/>
       <c r="D101" s="78"/>
@@ -3961,7 +3967,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C102" s="78"/>
       <c r="D102" s="78"/>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C103" s="78"/>
       <c r="D103" s="78"/>
@@ -3983,7 +3989,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C104" s="78"/>
       <c r="D104" s="78"/>
@@ -4011,7 +4017,7 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="80" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C107" s="78"/>
       <c r="D107" s="78"/>
@@ -4031,7 +4037,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C109" s="78"/>
       <c r="D109" s="78"/>
@@ -4042,7 +4048,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C110" s="78"/>
       <c r="D110" s="78"/>
@@ -4053,7 +4059,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B111" s="81" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C111" s="78"/>
       <c r="D111" s="78"/>
@@ -4064,7 +4070,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B112" s="81" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C112" s="78"/>
       <c r="D112" s="78"/>
@@ -4102,11 +4108,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FC2CC68F-AC31-495D-A57F-7519C227E18E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E6978E33-BDB9-4DC8-B3E3-77FF12410F0F}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C81A3E1D-6C80-4414-BBCA-4153FE0BA369}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{79C65EBD-EC98-47F9-BDAE-F5A859E5D4F3}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{7A5B14A2-9741-465E-B648-23ECCA7AD3DD}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{54FC704B-EF3A-4E49-815F-A933B76844AF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F8D9F616-67F9-4E22-A977-BC626C1EBFDB}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{30769187-00A3-479D-A4A5-43AACCE7C3D2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{40B0B2E3-24C1-4CA0-BF5C-18BCE68C4B74}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{63594EBF-C142-4471-9A5A-A04FCEDB6162}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
